--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89A6983E-4782-46A5-AB3A-F3C074122A05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AB53B7-036F-410D-8750-145308BA3ADE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{53EBF420-4DA3-4F61-86F0-B6F3ACCAF6B4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="2" xr2:uid="{53EBF420-4DA3-4F61-86F0-B6F3ACCAF6B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Rf" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="145">
   <si>
     <t>Mức độ rủi ro</t>
   </si>
@@ -144,13 +144,344 @@
   </si>
   <si>
     <t>Estination</t>
+  </si>
+  <si>
+    <t>Task Group</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Assign</t>
+  </si>
+  <si>
+    <t>#hour</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>% completed</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Họp dự án mỗi ngày (daily meeting)</t>
+  </si>
+  <si>
+    <t>Họp dự án tuần 12/3 - 5/6</t>
+  </si>
+  <si>
+    <t>Lập kế hoạch dự án</t>
+  </si>
+  <si>
+    <t>Ước lượng chi phí</t>
+  </si>
+  <si>
+    <t>Quản lý rủi ro</t>
+  </si>
+  <si>
+    <t>Báo cáo tiến độ</t>
+  </si>
+  <si>
+    <t>Cài đặt GitHub</t>
+  </si>
+  <si>
+    <t>Tạo thư mục quản lý cấu hình</t>
+  </si>
+  <si>
+    <t>Thông qua FB messenger / Team Viewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cài đặt Team Viewer </t>
+  </si>
+  <si>
+    <t>Cài đặt Nodejs</t>
+  </si>
+  <si>
+    <t>Quang, Duy,Khoa</t>
+  </si>
+  <si>
+    <t>Cài đặt Reactjs</t>
+  </si>
+  <si>
+    <t>Cài đặt MongoDB</t>
+  </si>
+  <si>
+    <t>Tài khoản GitHub</t>
+  </si>
+  <si>
+    <t>Tạo tài khoản amazon</t>
+  </si>
+  <si>
+    <t>Reactjs</t>
+  </si>
+  <si>
+    <t>Nodejs</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>github.com</t>
+  </si>
+  <si>
+    <t>version 14</t>
+  </si>
+  <si>
+    <t>15.12.0</t>
+  </si>
+  <si>
+    <t>17.0.2</t>
+  </si>
+  <si>
+    <t>https://www.mongodb.com</t>
+  </si>
+  <si>
+    <t>Khảo sát yêu cầu chức năng</t>
+  </si>
+  <si>
+    <t>Vẽ usecase model</t>
+  </si>
+  <si>
+    <t>Quang, Phượng</t>
+  </si>
+  <si>
+    <t>Viết đặc tả usecase (usecase specs)</t>
+  </si>
+  <si>
+    <t>Khoa, Duy</t>
+  </si>
+  <si>
+    <t>Review tài liệu đặc tả usecase specs</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>Risk Description</t>
+  </si>
+  <si>
+    <t>Risk Type</t>
+  </si>
+  <si>
+    <t>Risk Group</t>
+  </si>
+  <si>
+    <t>Affects</t>
+  </si>
+  <si>
+    <t>Exponent</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Strategy Description</t>
+  </si>
+  <si>
+    <t>Công nghệ mới, chưa thành thạo</t>
+  </si>
+  <si>
+    <t>Chưa có nhiều kinh nghiệm về Reactjs và Nodejs</t>
+  </si>
+  <si>
+    <t>SPRINT 1(BAISIC VERSION - v1.0.0)</t>
+  </si>
+  <si>
+    <t>Phân tích thiết kế</t>
+  </si>
+  <si>
+    <t>Customer Web</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Create new account</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Customer Web</t>
+  </si>
+  <si>
+    <t>Partner Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Customer Web</t>
+  </si>
+  <si>
+    <t>Duy,Khoa</t>
+  </si>
+  <si>
+    <t>Admin Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Partner Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Web</t>
+  </si>
+  <si>
+    <t>Thiết kế CSDL</t>
+  </si>
+  <si>
+    <t>Vẽ Data Diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lập trình</t>
+  </si>
+  <si>
+    <t>Kiểm thử</t>
+  </si>
+  <si>
+    <t>intergration testing/fuctional testing</t>
+  </si>
+  <si>
+    <t>SPRINT 2(ADVANCE VERSION - v1.0.1)</t>
+  </si>
+  <si>
+    <t>Mua</t>
+  </si>
+  <si>
+    <t>Nhận thông báo</t>
+  </si>
+  <si>
+    <t>Xem thông tin</t>
+  </si>
+  <si>
+    <t>Chọn phương thức thanh toán</t>
+  </si>
+  <si>
+    <t>Xác nhận thanh toán</t>
+  </si>
+  <si>
+    <t>Chọn phương thức đăng nhập khác</t>
+  </si>
+  <si>
+    <t>Chọn phương thức thanh toán khác</t>
+  </si>
+  <si>
+    <t>Thông báo đăng nhập thất bại</t>
+  </si>
+  <si>
+    <t>Hủy đăng nhập</t>
+  </si>
+  <si>
+    <t>Đăng ký thất bại</t>
+  </si>
+  <si>
+    <t>Hủy đăng ký</t>
+  </si>
+  <si>
+    <t>Đăng tải blog/deal</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa thông tin blog/deal</t>
+  </si>
+  <si>
+    <t>Thông báo</t>
+  </si>
+  <si>
+    <t>Thống kê doanh thu</t>
+  </si>
+  <si>
+    <t>Tra cứu</t>
+  </si>
+  <si>
+    <t>Phân quyền</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khoa </t>
+  </si>
+  <si>
+    <t>Đăng bài thất bại</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa thông tin thất bại</t>
+  </si>
+  <si>
+    <t>API lấy từ app khác</t>
+  </si>
+  <si>
+    <t>system testiing</t>
+  </si>
+  <si>
+    <t>SPRINT 3(FULL VERSION - v1.0.2)</t>
+  </si>
+  <si>
+    <t>Fix lỗi</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Báo cáo trend</t>
+  </si>
+  <si>
+    <t>Bỏ thêm thời gian để nghiên cứu về vấn đề kỹ thuật
+(trên các diễn đàn, xem youtube…)</t>
+  </si>
+  <si>
+    <t>C1 - Customers &amp; Users</t>
+  </si>
+  <si>
+    <t>a. Training  và làm dự án demo trước 
+khi vào dự án thật
+b. Mua một khóa học online về Nodejs 
+trên Udemy và làm dự án deno theo 
+khóa học</t>
+  </si>
+  <si>
+    <t>Không có đủ thời gian làm song song
+2 dự án (lý thuyết và thực hành)</t>
+  </si>
+  <si>
+    <t>Do đổi công nghệ phần thực hành  nên sẽ làm phải làm đồng
+thời 2 dự án:
+_demo lý thuyết theo công nghệ của lý thuyết
+_thực hành: theo công nghệ mới đổi</t>
+  </si>
+  <si>
+    <t>Estimation</t>
+  </si>
+  <si>
+    <t>Phân chia nhân sự riêng biệt cho dự án
+lý thuyết và thực hành</t>
+  </si>
+  <si>
+    <t>Trễ deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có nhiều thành viên chưa thạo công nghệ nên mất thời gian
+training </t>
+  </si>
+  <si>
+    <t>1a. Code dùm
+1b. Tìm kiếm các thông tin trên github, 
+youtube… và làm theo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,8 +511,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,6 +554,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -247,13 +628,49 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
@@ -573,7 +990,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,24 +1245,1487 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D2B7D8-ECA8-4BAE-BF49-24418A6CB6E1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H93"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="8" max="8" width="36.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
+      <c r="B50" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="8"/>
+      <c r="B51" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="8"/>
+      <c r="B52" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="8"/>
+      <c r="B53" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="8"/>
+      <c r="B54" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="8"/>
+      <c r="B66" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="8"/>
+      <c r="B78" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="8"/>
+      <c r="B84" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="8"/>
+      <c r="B85" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="8"/>
+      <c r="B86" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="8"/>
+      <c r="B87" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="8"/>
+      <c r="B89" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="8"/>
+      <c r="B91" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="8"/>
+      <c r="B92" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="8"/>
+      <c r="B93" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDF18BC-A28F-4C52-908A-3185FA2A14AE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" customWidth="1"/>
+    <col min="3" max="3" width="49.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" customWidth="1"/>
+    <col min="10" max="10" width="33.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="14">
+        <v>5</v>
+      </c>
+      <c r="G2" s="15">
+        <v>1</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="14">
+        <v>4</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14">
+        <v>2</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14">
+        <v>4</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>